--- a/data/trans_orig/P14A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916E594C-40C0-4209-8945-E680A7B47D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8536A92D-AD72-4E0D-862D-435AE241A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{595DFC9B-82FC-4E41-ABC6-828DD7C0A509}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED23865-0DA3-486E-8C74-52C1EC001B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -75,16 +75,16 @@
     <t>92,92%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>89,8%</t>
+    <t>91,22%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -93,7 +93,10 @@
     <t>94,46%</t>
   </si>
   <si>
-    <t>90,34%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,10 +105,10 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -114,13 +117,16 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>10,2%</t>
+    <t>8,78%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>9,66%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,55 +138,55 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -222,55 +228,55 @@
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -282,55 +288,55 @@
     <t>96,58%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>10,26%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>85,75%</t>
+    <t>85,73%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -339,19 +345,19 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>5,21%</t>
@@ -360,25 +366,25 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>14,25%</t>
+    <t>14,27%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>78,19%</t>
@@ -390,19 +396,19 @@
     <t>60,59%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>21,81%</t>
@@ -414,73 +420,73 @@
     <t>39,41%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AFD65-C3A3-4381-A156-556A89AA98C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B289EC8-C858-4418-B467-E165B99D5CEE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1052,13 +1058,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -1067,13 +1073,13 @@
         <v>6797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -1082,13 +1088,13 @@
         <v>5256</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -1097,13 +1103,13 @@
         <v>12053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1118,13 +1124,13 @@
         <v>96014</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -1133,13 +1139,13 @@
         <v>121682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>203</v>
@@ -1148,18 +1154,18 @@
         <v>217696</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1171,13 +1177,13 @@
         <v>26596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1186,13 +1192,13 @@
         <v>19008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -1201,19 +1207,19 @@
         <v>45603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1222,13 +1228,13 @@
         <v>5579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1237,13 +1243,13 @@
         <v>4845</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1252,13 +1258,13 @@
         <v>10425</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1273,13 +1279,13 @@
         <v>32175</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -1288,13 +1294,13 @@
         <v>23853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -1303,18 +1309,18 @@
         <v>56028</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1326,13 +1332,13 @@
         <v>3000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1341,13 +1347,13 @@
         <v>1162</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1356,19 +1362,19 @@
         <v>4162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1377,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1392,13 +1398,13 @@
         <v>986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1407,13 +1413,13 @@
         <v>986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,13 +1434,13 @@
         <v>3000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1443,13 +1449,13 @@
         <v>2148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1458,13 +1464,13 @@
         <v>5148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1487,13 @@
         <v>118812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1496,13 +1502,13 @@
         <v>136596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -1511,19 +1517,19 @@
         <v>255408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -1532,13 +1538,13 @@
         <v>12377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1547,13 +1553,13 @@
         <v>11087</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1562,13 +1568,13 @@
         <v>23464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1589,13 @@
         <v>131189</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>139</v>
@@ -1598,13 +1604,13 @@
         <v>147683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -1613,18 +1619,18 @@
         <v>278872</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D558AE2B-E2C7-4A70-89CB-8F778A732A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85EF4DC-88B4-4C1E-A95B-4482593C512F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1660,7 +1666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1767,13 +1773,13 @@
         <v>56289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -1782,13 +1788,13 @@
         <v>98115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>144</v>
@@ -1797,19 +1803,19 @@
         <v>154403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1818,13 +1824,13 @@
         <v>1993</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1833,13 +1839,13 @@
         <v>4923</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1848,13 +1854,13 @@
         <v>6916</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1875,13 @@
         <v>58282</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>87</v>
@@ -1884,13 +1890,13 @@
         <v>103038</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>150</v>
@@ -1899,18 +1905,18 @@
         <v>161319</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1922,13 +1928,13 @@
         <v>56626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -1937,13 +1943,13 @@
         <v>40530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -1952,19 +1958,19 @@
         <v>97156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1973,13 +1979,13 @@
         <v>3110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1988,13 +1994,13 @@
         <v>5590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2003,13 +2009,13 @@
         <v>8700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2030,13 @@
         <v>59736</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -2039,13 +2045,13 @@
         <v>46120</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -2054,18 +2060,18 @@
         <v>105856</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2077,13 +2083,13 @@
         <v>7458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2092,13 +2098,13 @@
         <v>6283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2107,19 +2113,19 @@
         <v>13742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -2128,13 +2134,13 @@
         <v>2081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2143,13 +2149,13 @@
         <v>4087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2158,13 +2164,13 @@
         <v>6168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2185,13 @@
         <v>9539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2194,13 +2200,13 @@
         <v>10370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -2209,13 +2215,13 @@
         <v>19910</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2238,13 @@
         <v>120373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2247,13 +2253,13 @@
         <v>144928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -2262,19 +2268,19 @@
         <v>265301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>7</v>
@@ -2283,13 +2289,13 @@
         <v>7184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2298,13 +2304,13 @@
         <v>14600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2313,13 +2319,13 @@
         <v>21784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2340,13 @@
         <v>127557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>138</v>
@@ -2349,13 +2355,13 @@
         <v>159528</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -2364,18 +2370,18 @@
         <v>287085</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8536A92D-AD72-4E0D-862D-435AE241A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF890A42-75E7-4AB8-9921-F30C749FB58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED23865-0DA3-486E-8C74-52C1EC001B6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD79BBB-B430-4637-9A3C-F2EB25C3FE9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>92,92%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,49 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>68,77%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>31,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,7 +201,7 @@
     <t>80,85%</t>
   </si>
   <si>
-    <t>20,63%</t>
+    <t>22,76%</t>
   </si>
   <si>
     <t>0%</t>
@@ -222,271 +216,265 @@
     <t>19,15%</t>
   </si>
   <si>
-    <t>79,37%</t>
+    <t>77,24%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
+    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2016 (Tasa respuesta: 4,05%)</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>70,25%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B289EC8-C858-4418-B467-E165B99D5CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9CFB1E-989D-4E75-B1C8-F15225303526}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1213,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1228,13 +1216,13 @@
         <v>5579</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1243,13 +1231,13 @@
         <v>4845</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1258,13 +1246,13 @@
         <v>10425</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,7 +1308,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1332,10 +1320,10 @@
         <v>3000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1347,13 +1335,13 @@
         <v>1162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1362,13 +1350,13 @@
         <v>4162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1383,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1398,13 +1386,13 @@
         <v>986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1413,13 +1401,13 @@
         <v>986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,13 +1475,13 @@
         <v>118812</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1502,13 +1490,13 @@
         <v>136596</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -1517,13 +1505,13 @@
         <v>255408</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,13 +1526,13 @@
         <v>12377</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1553,13 +1541,13 @@
         <v>11087</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1568,13 +1556,13 @@
         <v>23464</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1618,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85EF4DC-88B4-4C1E-A95B-4482593C512F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B8ECBC-0D13-49D9-B4E6-59ECD01549EE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1666,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1773,13 +1761,13 @@
         <v>56289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -1788,13 +1776,13 @@
         <v>98115</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>144</v>
@@ -1803,13 +1791,13 @@
         <v>154403</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1812,13 @@
         <v>1993</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1839,13 +1827,13 @@
         <v>4923</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1854,13 +1842,13 @@
         <v>6916</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1916,13 @@
         <v>56626</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -1943,13 +1931,13 @@
         <v>40530</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -1958,13 +1946,13 @@
         <v>97156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1967,13 @@
         <v>3110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1994,13 +1982,13 @@
         <v>5590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2009,13 +1997,13 @@
         <v>8700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2059,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2083,13 +2071,13 @@
         <v>7458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2098,13 +2086,13 @@
         <v>6283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2113,13 +2101,13 @@
         <v>13742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2122,13 @@
         <v>2081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2149,13 +2137,13 @@
         <v>4087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2164,13 +2152,13 @@
         <v>6168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2226,13 @@
         <v>120373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2253,13 +2241,13 @@
         <v>144928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -2268,13 +2256,13 @@
         <v>265301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2277,13 @@
         <v>7184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2304,13 +2292,13 @@
         <v>14600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2319,13 +2307,13 @@
         <v>21784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
